--- a/Problem Difficulty Explanation.xlsx
+++ b/Problem Difficulty Explanation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Math-Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512962C3-B6A8-4C6F-A5F2-BB739E135C4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41C4875-EF61-49C2-9BDA-80F4B75BFD0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Easy</t>
   </si>
@@ -81,18 +81,6 @@
     <t>Expert numbers</t>
   </si>
   <si>
-    <t>easy numbers, integer result</t>
-  </si>
-  <si>
-    <t>medium numbers, integer result</t>
-  </si>
-  <si>
-    <t>hard numbers, integer result</t>
-  </si>
-  <si>
-    <t>expert numbers, integer result</t>
-  </si>
-  <si>
     <t>Easy Numbers</t>
   </si>
   <si>
@@ -115,6 +103,21 @@
   </si>
   <si>
     <t>7,12</t>
+  </si>
+  <si>
+    <t>All positive results</t>
+  </si>
+  <si>
+    <t>easy numbers</t>
+  </si>
+  <si>
+    <t>medium numbers</t>
+  </si>
+  <si>
+    <t>expert numbers</t>
+  </si>
+  <si>
+    <t>All integer results</t>
   </si>
 </sst>
 </file>
@@ -130,18 +133,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -162,10 +159,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -447,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,23 +456,24 @@
     <col min="3" max="3" width="41.140625" customWidth="1"/>
     <col min="4" max="4" width="62" customWidth="1"/>
     <col min="5" max="5" width="28.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -493,21 +490,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -524,49 +527,52 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E9" t="s">
         <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
